--- a/data/Final Project Data_wide.xlsx
+++ b/data/Final Project Data_wide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtywi\Dropbox\Stastistics files\R Projects\958\958-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816C90D-253C-42EC-B53D-979598CEC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7DFD59-C75D-4B8B-9DFD-90148D0867F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D72FADB8-59C4-479B-BBBB-227E8AD5DB7E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D72FADB8-59C4-479B-BBBB-227E8AD5DB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
   <dimension ref="A1:AX88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2558,9 +2558,6 @@
       <c r="Z11">
         <v>1</v>
       </c>
-      <c r="AA11">
-        <v>700000</v>
-      </c>
       <c r="AB11">
         <v>61</v>
       </c>
